--- a/published-data/activite-partielle/activite-partielle-2020-05-20/activite-partielle-departemental-nace17-latest.xlsx
+++ b/published-data/activite-partielle/activite-partielle-2020-05-20/activite-partielle-departemental-nace17-latest.xlsx
@@ -9679,16 +9679,16 @@
     <t>Agriculture, sylviculture et pêche</t>
   </si>
   <si>
-    <t>Fabrication de denrées alimentaires, de boissons et de produits à base de tabac</t>
-  </si>
-  <si>
-    <t>Fabrication d'équipements électriques, électroniques, informatiques ; fabrication de machines</t>
+    <t>Fabr. de denrées alimentaires - boissons et prod. à base de tabac de boissons et de produits à base de tabac</t>
+  </si>
+  <si>
+    <t>Fabr. d'équipements ; fabrication de machines</t>
   </si>
   <si>
     <t>Fabrication de matériels de transport</t>
   </si>
   <si>
-    <t>Fabrication d'autres produits industriels</t>
+    <t>Fabrication d'autres produits indus.</t>
   </si>
   <si>
     <t>Industries extractives</t>
@@ -9709,16 +9709,16 @@
     <t>Information et communication</t>
   </si>
   <si>
-    <t>Activités financières et d'assurance</t>
+    <t>Act. financières et d'assurance</t>
   </si>
   <si>
     <t>Activités immobilières</t>
   </si>
   <si>
-    <t>Activités scientifiques et techniques ; services administratifs et de soutien</t>
-  </si>
-  <si>
-    <t>Administration publique, enseignement, santé humaine et action sociale</t>
+    <t>Act. scientif. et tech. ; services admin. et de soutien</t>
+  </si>
+  <si>
+    <t>Admin. publique - enseignement, santé humaine et action sociale</t>
   </si>
   <si>
     <t>Autres activités de services</t>
